--- a/archivos_ejemplo/excel_prueba/solicitantes.xlsx
+++ b/archivos_ejemplo/excel_prueba/solicitantes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferro\OneDrive\Escritorio\Mejor_ninez\archivos_ejemplo\excel_prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5562FB-1DDA-4FA7-954F-334886CFC383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD113717-660F-438C-BABA-6C3FC9556A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="46">
   <si>
     <t>codNNA</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>Prioridad</t>
+  </si>
+  <si>
+    <t>pedro</t>
+  </si>
+  <si>
+    <t>29223778-6</t>
   </si>
 </sst>
 </file>
@@ -193,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +236,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -256,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -273,6 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1153,9 +1166,68 @@
         <v>75</v>
       </c>
     </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9999993</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" s="11">
+        <v>45487</v>
+      </c>
+      <c r="S9" s="10">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A8">
+  <conditionalFormatting sqref="A1:A9">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/archivos_ejemplo/excel_prueba/solicitantes.xlsx
+++ b/archivos_ejemplo/excel_prueba/solicitantes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferro\OneDrive\Escritorio\Mejor_ninez\archivos_ejemplo\excel_prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD113717-660F-438C-BABA-6C3FC9556A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043369D0-7D7B-4E89-AB68-4A75E99C2473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="48">
   <si>
     <t>codNNA</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>29223778-6</t>
+  </si>
+  <si>
+    <t>pedro2</t>
+  </si>
+  <si>
+    <t>29223778-7</t>
   </si>
 </sst>
 </file>
@@ -290,7 +296,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -375,11 +391,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3043A38-A63D-476F-9BF1-1FFCEEA2AC6D}" name="Tabla1" displayName="Tabla1" ref="A1:S3" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4">
-  <autoFilter ref="A1:S3" xr:uid="{A3043A38-A63D-476F-9BF1-1FFCEEA2AC6D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3043A38-A63D-476F-9BF1-1FFCEEA2AC6D}" name="Tabla1" displayName="Tabla1" ref="A1:S3" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
+  <autoFilter ref="A1:S3" xr:uid="{A3043A38-A63D-476F-9BF1-1FFCEEA2AC6D}">
+    <filterColumn colId="12">
+      <filters>
+        <filter val="Coquimbo"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:S3">
+    <sortCondition descending="1" ref="B1:B3"/>
+  </sortState>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{0465EC0A-A3C3-4E31-AA67-3B04499768AB}" name="codNNA"/>
-    <tableColumn id="27" xr3:uid="{0AD36393-81E7-4CE9-9BB1-FEA8F023D94F}" name="tipo de programa" dataDxfId="3"/>
+    <tableColumn id="27" xr3:uid="{0AD36393-81E7-4CE9-9BB1-FEA8F023D94F}" name="tipo de programa" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{04607DB5-6DDB-487F-BC80-C971ECC5B843}" name="apellido_paterno"/>
     <tableColumn id="6" xr3:uid="{0487F65C-910C-44B3-B4E6-FDCD6F41926E}" name="apellido_materno"/>
     <tableColumn id="7" xr3:uid="{9028F1CC-A7D7-40CE-9A95-430833FD983A}" name="nombres"/>
@@ -395,8 +420,8 @@
     <tableColumn id="21" xr3:uid="{F5EADB26-0C22-442A-9DD9-25CDC8C222BD}" name="Tribunal"/>
     <tableColumn id="22" xr3:uid="{1A2E2A19-16DA-49E2-8DAF-98E35D0647E6}" name="Expediente"/>
     <tableColumn id="23" xr3:uid="{7C3BB51B-B2E0-4003-9A98-5E8C2CBC1413}" name="CausalIngreso_1"/>
-    <tableColumn id="2" xr3:uid="{90617DD0-4E08-4D4B-AF23-44BBACF601C4}" name="Fecha de Solicitud" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{9BB97D4D-C23D-4980-A9B2-1100CC40A3F6}" name="Prioridad" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{90617DD0-4E08-4D4B-AF23-44BBACF601C4}" name="Fecha de Solicitud" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{9BB97D4D-C23D-4980-A9B2-1100CC40A3F6}" name="Prioridad" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -665,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -753,7 +778,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>9999991</v>
       </c>
@@ -865,7 +890,7 @@
         <v>34</v>
       </c>
       <c r="R3" s="8">
-        <v>45305</v>
+        <v>45365</v>
       </c>
       <c r="S3" s="9">
         <v>80</v>
@@ -1042,7 +1067,7 @@
         <v>34</v>
       </c>
       <c r="R6" s="8">
-        <v>45365</v>
+        <v>45305</v>
       </c>
       <c r="S6" s="9">
         <v>75</v>
@@ -1225,10 +1250,128 @@
         <v>95</v>
       </c>
     </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9999992</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" s="8">
+        <v>44940</v>
+      </c>
+      <c r="S10" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9999994</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="11">
+        <v>45487</v>
+      </c>
+      <c r="S11" s="10">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A9">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  <conditionalFormatting sqref="A1:A11">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/archivos_ejemplo/excel_prueba/solicitantes.xlsx
+++ b/archivos_ejemplo/excel_prueba/solicitantes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferro\OneDrive\Escritorio\Mejor_ninez\archivos_ejemplo\excel_prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043369D0-7D7B-4E89-AB68-4A75E99C2473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A64D3F4-3218-4F03-9235-E7E9B94B7677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,12 +39,6 @@
     <t>nombres</t>
   </si>
   <si>
-    <t>fechanacimiento</t>
-  </si>
-  <si>
-    <t>rut</t>
-  </si>
-  <si>
     <t>sexo</t>
   </si>
   <si>
@@ -63,9 +57,6 @@
     <t>Comuna</t>
   </si>
   <si>
-    <t>SolicitanteIngreso</t>
-  </si>
-  <si>
     <t>Tribunal</t>
   </si>
   <si>
@@ -169,6 +160,15 @@
   </si>
   <si>
     <t>29223778-7</t>
+  </si>
+  <si>
+    <t>fecha_nacimiento</t>
+  </si>
+  <si>
+    <t>RUT</t>
+  </si>
+  <si>
+    <t>Solicitante_Ingreso</t>
   </si>
 </sst>
 </file>
@@ -296,17 +296,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -391,7 +381,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3043A38-A63D-476F-9BF1-1FFCEEA2AC6D}" name="Tabla1" displayName="Tabla1" ref="A1:S3" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3043A38-A63D-476F-9BF1-1FFCEEA2AC6D}" name="Tabla1" displayName="Tabla1" ref="A1:S3" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4">
   <autoFilter ref="A1:S3" xr:uid="{A3043A38-A63D-476F-9BF1-1FFCEEA2AC6D}">
     <filterColumn colId="12">
       <filters>
@@ -404,24 +394,24 @@
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{0465EC0A-A3C3-4E31-AA67-3B04499768AB}" name="codNNA"/>
-    <tableColumn id="27" xr3:uid="{0AD36393-81E7-4CE9-9BB1-FEA8F023D94F}" name="tipo de programa" dataDxfId="4"/>
+    <tableColumn id="27" xr3:uid="{0AD36393-81E7-4CE9-9BB1-FEA8F023D94F}" name="tipo de programa" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{04607DB5-6DDB-487F-BC80-C971ECC5B843}" name="apellido_paterno"/>
     <tableColumn id="6" xr3:uid="{0487F65C-910C-44B3-B4E6-FDCD6F41926E}" name="apellido_materno"/>
     <tableColumn id="7" xr3:uid="{9028F1CC-A7D7-40CE-9A95-430833FD983A}" name="nombres"/>
-    <tableColumn id="8" xr3:uid="{B472D991-BB1C-4346-81DF-E76BE393C8D9}" name="fechanacimiento"/>
-    <tableColumn id="9" xr3:uid="{92468C89-5E6D-4679-8E59-6875FA29395E}" name="rut"/>
+    <tableColumn id="8" xr3:uid="{B472D991-BB1C-4346-81DF-E76BE393C8D9}" name="fecha_nacimiento"/>
+    <tableColumn id="9" xr3:uid="{92468C89-5E6D-4679-8E59-6875FA29395E}" name="RUT"/>
     <tableColumn id="13" xr3:uid="{01654AB9-409D-439E-982B-49A38F8E51BE}" name="sexo"/>
     <tableColumn id="14" xr3:uid="{1AA98D54-1789-440C-B988-6BF463BEEA60}" name="Nacionalidad"/>
     <tableColumn id="16" xr3:uid="{A4981B2E-3836-418C-A128-E3CEB94BAFAA}" name="CalidadJuridica"/>
     <tableColumn id="17" xr3:uid="{72ADCA88-51D9-4B0C-8EEA-7B05E42DEBB6}" name="DireccionNino"/>
     <tableColumn id="18" xr3:uid="{F1604546-BE88-453E-9EF4-821D8505BBC0}" name="RegionNino"/>
     <tableColumn id="19" xr3:uid="{E673C949-D795-404B-8DBB-6F0502B3BE79}" name="Comuna"/>
-    <tableColumn id="20" xr3:uid="{4218C67D-6C2C-48EF-A922-E35361DEAE9A}" name="SolicitanteIngreso"/>
+    <tableColumn id="20" xr3:uid="{4218C67D-6C2C-48EF-A922-E35361DEAE9A}" name="Solicitante_Ingreso"/>
     <tableColumn id="21" xr3:uid="{F5EADB26-0C22-442A-9DD9-25CDC8C222BD}" name="Tribunal"/>
     <tableColumn id="22" xr3:uid="{1A2E2A19-16DA-49E2-8DAF-98E35D0647E6}" name="Expediente"/>
     <tableColumn id="23" xr3:uid="{7C3BB51B-B2E0-4003-9A98-5E8C2CBC1413}" name="CausalIngreso_1"/>
-    <tableColumn id="2" xr3:uid="{90617DD0-4E08-4D4B-AF23-44BBACF601C4}" name="Fecha de Solicitud" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{9BB97D4D-C23D-4980-A9B2-1100CC40A3F6}" name="Prioridad" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{90617DD0-4E08-4D4B-AF23-44BBACF601C4}" name="Fecha de Solicitud" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{9BB97D4D-C23D-4980-A9B2-1100CC40A3F6}" name="Prioridad" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -693,7 +683,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -724,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -736,46 +726,46 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="R1" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -783,52 +773,52 @@
         <v>9999991</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2">
         <v>41043</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
         <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
       </c>
       <c r="L2">
         <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" t="s">
         <v>23</v>
-      </c>
-      <c r="O2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>26</v>
       </c>
       <c r="R2" s="7">
         <v>45426</v>
@@ -842,52 +832,52 @@
         <v>9999992</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
         <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
       </c>
       <c r="L3">
         <v>4</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R3" s="8">
         <v>45365</v>
@@ -901,52 +891,52 @@
         <v>9999991</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2">
         <v>41043</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
         <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
       </c>
       <c r="L4">
         <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" t="s">
         <v>23</v>
-      </c>
-      <c r="O4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>26</v>
       </c>
       <c r="R4" s="7">
         <v>45305</v>
@@ -960,52 +950,52 @@
         <v>9999992</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
         <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
       </c>
       <c r="L5">
         <v>4</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R5" s="8">
         <v>45336</v>
@@ -1019,52 +1009,52 @@
         <v>9999992</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="s">
-        <v>31</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R6" s="8">
         <v>45305</v>
@@ -1078,52 +1068,52 @@
         <v>9999992</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
         <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" t="s">
-        <v>31</v>
       </c>
       <c r="L7">
         <v>4</v>
       </c>
       <c r="M7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R7" s="11">
         <v>45426</v>
@@ -1137,52 +1127,52 @@
         <v>9999992</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
         <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" t="s">
-        <v>31</v>
       </c>
       <c r="L8">
         <v>4</v>
       </c>
       <c r="M8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R8" s="11">
         <v>45487</v>
@@ -1196,52 +1186,52 @@
         <v>9999993</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L9">
         <v>4</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R9" s="11">
         <v>45487</v>
@@ -1255,52 +1245,52 @@
         <v>9999992</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
         <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" t="s">
-        <v>31</v>
       </c>
       <c r="L10">
         <v>4</v>
       </c>
       <c r="M10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R10" s="8">
         <v>44940</v>
@@ -1314,52 +1304,52 @@
         <v>9999994</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>47</v>
-      </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L11">
         <v>4</v>
       </c>
       <c r="M11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R11" s="11">
         <v>45487</v>
@@ -1371,7 +1361,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:A11">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
